--- a/studygo/demos/eighth/Go语言工程师信息表.xlsx
+++ b/studygo/demos/eighth/Go语言工程师信息表.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bing/Go01Class/Resource/整理/第8课/04作业/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangsam/Desktop/golang/src/github.com/znk_fullstack/studygo/demos/eighth/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
+    <workbookView minimized="1" xWindow="840" yWindow="460" windowWidth="24760" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 2019-12-17 资深Go语言工程师实战课" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1830,10 +1833,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IH61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1846,7 +1849,7 @@
     <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
-    <col min="9" max="242" width="8.33203125" style="3" customWidth="1"/>
+    <col min="9" max="242" width="8.33203125" style="4" customWidth="1"/>
     <col min="243" max="16384" width="8.33203125" style="4"/>
   </cols>
   <sheetData>
